--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF1BEC5-F1D5-464B-8A1B-DC215CC6266F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B47FF-E49F-4AAD-99D8-ED829FA06F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>box key</t>
   </si>
   <si>
-    <t>This is the key to open box 8</t>
-  </si>
-  <si>
     <t>scrap</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>1234, 2345, 3456, 4567, 5678, 6789, 7890</t>
+  </si>
+  <si>
+    <t>You have the key to open box 8</t>
   </si>
 </sst>
 </file>
@@ -643,17 +643,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,31 +989,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1293,7 +1293,7 @@
         <v>8563</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -1313,7 +1313,7 @@
         <v>8764</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -1333,7 +1333,7 @@
         <v>3265</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1425,7 +1425,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5">
         <v>7531</v>
@@ -1433,7 +1433,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="11" t="s">
@@ -1490,8 +1490,8 @@
       <c r="C22" s="5">
         <v>7632</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>88</v>
+      <c r="D22" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C23" s="4">
         <v>8532</v>
@@ -1522,16 +1522,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="9">
         <v>8480</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="9">
         <v>9190</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5">
         <v>8491</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="C27" s="4">
         <v>3221</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="C28" s="5">
         <v>4865</v>
@@ -1622,16 +1622,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -1642,18 +1642,18 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="1" t="s">
@@ -1662,18 +1662,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="1" t="s">
@@ -1682,18 +1682,18 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="1" t="s">
@@ -1702,7 +1702,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>86</v>
@@ -1728,16 +1728,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C39" s="1">
         <v>4910</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>56</v>
@@ -1787,27 +1787,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1899,7 +1899,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -1916,13 +1916,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>56</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>56</v>
@@ -2015,7 +2015,7 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B47FF-E49F-4AAD-99D8-ED829FA06F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C366F-0D01-4EF3-B98B-E97F6FA39117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="122">
   <si>
     <t>Description</t>
   </si>
@@ -323,15 +323,6 @@
     <t>LVL9</t>
   </si>
   <si>
-    <t>You have the key to open box 3</t>
-  </si>
-  <si>
-    <t>You have the key to open box 11</t>
-  </si>
-  <si>
-    <t>You have the key to open box 9</t>
-  </si>
-  <si>
     <t>get out of jail free card, LVL2-8532, 3 small chocs (e.g. 3 celebrations)</t>
   </si>
   <si>
@@ -401,7 +392,16 @@
     <t>1234, 2345, 3456, 4567, 5678, 6789, 7890</t>
   </si>
   <si>
-    <t>You have the key to open box 8</t>
+    <t>You have found a key! Ask Lou Tennant for it quoting code 8563 and you shall receive</t>
+  </si>
+  <si>
+    <t>You have found a key! Ask Lou Tennant for it quoting code 8764 and you shall receive</t>
+  </si>
+  <si>
+    <t>You have found a key! Ask Lou Tennant for it quoting code 3265 and you shall receive</t>
+  </si>
+  <si>
+    <t>You have found a key! Ask Lou Tennant for it quoting code 7632 and you shall receive</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +980,7 @@
     <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1293,7 +1293,7 @@
         <v>8563</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -1313,7 +1313,7 @@
         <v>8764</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -1333,7 +1333,7 @@
         <v>3265</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1425,7 +1425,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" s="5">
         <v>7531</v>
@@ -1433,7 +1433,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="11" t="s">
@@ -1502,10 +1502,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="4">
         <v>8532</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" s="9">
         <v>8480</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="C25" s="9">
         <v>9190</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="5">
         <v>8491</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4">
         <v>3221</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5">
         <v>4865</v>
@@ -1622,16 +1622,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -1642,18 +1642,18 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="1" t="s">
@@ -1662,18 +1662,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="1" t="s">
@@ -1682,18 +1682,18 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="1" t="s">
@@ -1702,7 +1702,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>86</v>
@@ -1737,7 +1737,7 @@
         <v>4910</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>56</v>
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,124 +1974,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4">
+        <v>8563</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>7632</v>
+      </c>
+      <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10">
+        <v>3265</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12">
+        <v>8764</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C366F-0D01-4EF3-B98B-E97F6FA39117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94B900B-EAF5-4EBB-9D90-72CA47A7A1F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94B900B-EAF5-4EBB-9D90-72CA47A7A1F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07CCAD-2C1C-4E31-9E7C-7727D4FA7FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
   <si>
     <t>Description</t>
   </si>
@@ -402,6 +402,30 @@
   </si>
   <si>
     <t>You have found a key! Ask Lou Tennant for it quoting code 7632 and you shall receive</t>
+  </si>
+  <si>
+    <t>brain wiper 3001</t>
+  </si>
+  <si>
+    <t>LVL1</t>
+  </si>
+  <si>
+    <t>for one. For too</t>
+  </si>
+  <si>
+    <t>fingers</t>
+  </si>
+  <si>
+    <t>video 1 - Sian</t>
+  </si>
+  <si>
+    <t>video 1 - Dan</t>
+  </si>
+  <si>
+    <t>LVL3</t>
+  </si>
+  <si>
+    <t>torch</t>
   </si>
 </sst>
 </file>
@@ -417,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +451,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,9 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,9 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,6 +683,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -969,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,31 +1037,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1074,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1275,9 +1323,9 @@
       <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="11" t="s">
         <v>17</v>
       </c>
@@ -1295,9 +1343,9 @@
       <c r="D13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1315,9 +1363,9 @@
       <c r="D14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="10" t="s">
         <v>17</v>
       </c>
@@ -1335,9 +1383,9 @@
       <c r="D15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +1397,7 @@
       <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1430,12 +1478,12 @@
       <c r="C19" s="5">
         <v>7531</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="11" t="s">
         <v>17</v>
       </c>
@@ -1453,9 +1501,9 @@
       <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="7" t="s">
         <v>17</v>
       </c>
@@ -1473,9 +1521,9 @@
       <c r="D21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1493,9 +1541,9 @@
       <c r="D22" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="11" t="s">
         <v>17</v>
       </c>
@@ -1513,9 +1561,9 @@
       <c r="D23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="7" t="s">
         <v>17</v>
       </c>
@@ -1533,9 +1581,9 @@
       <c r="D24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="10" t="s">
         <v>17</v>
       </c>
@@ -1553,9 +1601,9 @@
       <c r="D25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="10" t="s">
         <v>17</v>
       </c>
@@ -1573,9 +1621,9 @@
       <c r="D26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="11" t="s">
         <v>17</v>
       </c>
@@ -1593,9 +1641,9 @@
       <c r="D27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
@@ -1613,142 +1661,242 @@
       <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="1" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="1" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="G31" s="15"/>
+      <c r="H31" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="1" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3001</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4142</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1231</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="9">
+        <v>9258</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="5">
+        <v>8801</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C42" s="1">
         <v>1974</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C43" s="1">
         <v>4910</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1787,27 +1935,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1820,7 +1968,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07CCAD-2C1C-4E31-9E7C-7727D4FA7FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C3EB83-EC9D-4001-BDA6-6D9472EF196A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="134">
   <si>
     <t>Description</t>
   </si>
@@ -426,6 +426,18 @@
   </si>
   <si>
     <t>torch</t>
+  </si>
+  <si>
+    <t>fiji</t>
+  </si>
+  <si>
+    <t>LONG MESSAGE WITH LVL3</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>You try to examine France but it just won't fit under the microscope</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,17 +1928,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2108,6 +2120,52 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -2117,6 +2175,7 @@
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C3EB83-EC9D-4001-BDA6-6D9472EF196A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A71A11-90D4-4456-BAB1-BA3BDADB1897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="136">
   <si>
     <t>Description</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>You try to examine France but it just won't fit under the microscope</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>scissors</t>
   </si>
 </sst>
 </file>
@@ -1928,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2062,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>89</v>
@@ -2102,7 +2108,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>90</v>
@@ -2163,6 +2169,52 @@
         <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A71A11-90D4-4456-BAB1-BA3BDADB1897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27379D1C-4B74-4F9B-AC9A-4E16B3FA24C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
   <si>
     <t>Description</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>scissors</t>
+  </si>
+  <si>
+    <t>blue rectangle</t>
   </si>
 </sst>
 </file>
@@ -691,18 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,6 +710,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,31 +1058,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1095,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1779,9 +1782,9 @@
       <c r="D33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="7" t="s">
         <v>17</v>
       </c>
@@ -1799,9 +1802,9 @@
       <c r="D34" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="10" t="s">
         <v>17</v>
       </c>
@@ -1819,9 +1822,9 @@
       <c r="D35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="10" t="s">
         <v>17</v>
       </c>
@@ -1839,9 +1842,9 @@
       <c r="D36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="10" t="s">
         <v>17</v>
       </c>
@@ -1859,62 +1862,88 @@
       <c r="D37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5184</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C45" s="1">
         <v>1974</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C46" s="1">
         <v>4910</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1936,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1953,27 +1982,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +2015,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27379D1C-4B74-4F9B-AC9A-4E16B3FA24C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8AFB45-1B77-4697-BC84-6F7F6FB22E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
   <si>
     <t>Description</t>
   </si>
@@ -230,9 +230,6 @@
     <t>blue red herring</t>
   </si>
   <si>
-    <t>This code is a red herring, if any other team uses it then they will get arrested</t>
-  </si>
-  <si>
     <t>0645</t>
   </si>
   <si>
@@ -323,18 +320,6 @@
     <t>LVL9</t>
   </si>
   <si>
-    <t>get out of jail free card, LVL2-8532, 3 small chocs (e.g. 3 celebrations)</t>
-  </si>
-  <si>
-    <t>get out of jail free card, LVL2-9190, 3 small chocs (e.g. 3 celebrations)</t>
-  </si>
-  <si>
-    <t>get out of jail free card, LVL2-8491, 3 small chocs (e.g. 3 celebrations)</t>
-  </si>
-  <si>
-    <t>LVL9-8480 plus pack of sweets</t>
-  </si>
-  <si>
     <t>BLUR and LVL9</t>
   </si>
   <si>
@@ -344,18 +329,9 @@
     <t>box code</t>
   </si>
   <si>
-    <t>box 3</t>
-  </si>
-  <si>
     <t>box 8</t>
   </si>
   <si>
-    <t>box 9</t>
-  </si>
-  <si>
-    <t>box 11</t>
-  </si>
-  <si>
     <t>scb example</t>
   </si>
   <si>
@@ -447,14 +423,130 @@
   </si>
   <si>
     <t>blue rectangle</t>
+  </si>
+  <si>
+    <t>surveillance complete</t>
+  </si>
+  <si>
+    <t>rgb</t>
+  </si>
+  <si>
+    <t>5489 1292 6472</t>
+  </si>
+  <si>
+    <t>You have found a key! Ask Lou Tennant for it quoting code XXXX and you shall receive</t>
+  </si>
+  <si>
+    <t>red surveillance complete</t>
+  </si>
+  <si>
+    <t>green surveillance complete</t>
+  </si>
+  <si>
+    <t>blue surveillance complete</t>
+  </si>
+  <si>
+    <t>Prize1</t>
+  </si>
+  <si>
+    <t>Prize2</t>
+  </si>
+  <si>
+    <t>box 3, 9, 11</t>
+  </si>
+  <si>
+    <t>3 small chocs (e.g. 3 celebrations), 1 card choice, LVL2-8532</t>
+  </si>
+  <si>
+    <t>pack of sweets, 2 card choices, LVL9-8480</t>
+  </si>
+  <si>
+    <t>Card choices:</t>
+  </si>
+  <si>
+    <t>Hacker card - access a chosen teams computer for 5 mins</t>
+  </si>
+  <si>
+    <t>Citizens arrest card - get Guard Ian to arrest anyone you want</t>
+  </si>
+  <si>
+    <t>Super get out of jail free card - When arrested do not spend time in jail and do not get a mark on the board</t>
+  </si>
+  <si>
+    <t>Get out of jail free card x 2 - When arrested do not spend time in jail</t>
+  </si>
+  <si>
+    <t>Wrongful imprisonment card - Remove a mark on the board and get a LVL1 clue for compensation</t>
+  </si>
+  <si>
+    <t>box of chocs, 2 card choices, sabotage code OR interference code, LVL9-4008</t>
+  </si>
+  <si>
+    <t>Sabotage codes:</t>
+  </si>
+  <si>
+    <t>Interference codes:</t>
+  </si>
+  <si>
+    <t>red=6833 green=6656 blue=6827</t>
+  </si>
+  <si>
+    <t>red=8404 green=9664 blue=4599</t>
+  </si>
+  <si>
+    <t>Prizes:</t>
+  </si>
+  <si>
+    <t>box 1, 6, 15</t>
+  </si>
+  <si>
+    <t>This code is a red herring, if it is used on any other teams computer then the person who entered it will get arrested</t>
+  </si>
+  <si>
+    <t>sabotage</t>
+  </si>
+  <si>
+    <t>6833 6656 6827</t>
+  </si>
+  <si>
+    <t>interference</t>
+  </si>
+  <si>
+    <t>8404 9664 4599</t>
+  </si>
+  <si>
+    <t>When used on another teams computer, this code will cause interference for 5 minutes, rendering the computer almost unusable</t>
+  </si>
+  <si>
+    <t>BLUR</t>
+  </si>
+  <si>
+    <t>pc is RGB</t>
+  </si>
+  <si>
+    <t>pc is NOT RGB</t>
+  </si>
+  <si>
+    <t>When used on another teams computer, this code will break their computer for 3 minutes. When entered it will log the user …</t>
+  </si>
+  <si>
+    <t>SMASH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -488,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -643,11 +735,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,6 +797,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,6 +833,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,18 +1160,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="180.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1058,31 +1180,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1217,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1353,7 +1475,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>57</v>
@@ -1362,7 +1484,7 @@
         <v>8563</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1373,7 +1495,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>58</v>
@@ -1382,7 +1504,7 @@
         <v>8764</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -1393,7 +1515,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>59</v>
@@ -1402,7 +1524,7 @@
         <v>3265</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1419,19 +1541,19 @@
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>17</v>
@@ -1448,16 +1570,16 @@
         <v>8562</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>17</v>
@@ -1474,16 +1596,16 @@
         <v>1654</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>17</v>
@@ -1494,7 +1616,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C19" s="5">
         <v>7531</v>
@@ -1502,7 +1624,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="11" t="s">
@@ -1511,10 +1633,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C20" s="4">
         <v>7337</v>
@@ -1531,10 +1653,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="9">
         <v>5962</v>
@@ -1551,16 +1673,16 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="5">
         <v>7632</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -1571,10 +1693,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C23" s="4">
         <v>8532</v>
@@ -1591,16 +1713,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C24" s="9">
-        <v>8480</v>
+        <v>4008</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -1609,18 +1731,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C25" s="9">
-        <v>9190</v>
+        <v>8480</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1629,255 +1751,333 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3221</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4865</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="5">
-        <v>8491</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="4">
-        <v>3221</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="5">
-        <v>4865</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="7" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="9" t="s">
+      <c r="B32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3001</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="11" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3001</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="7" t="s">
+      <c r="A33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="9">
+        <v>4142</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C34" s="9">
-        <v>4142</v>
+        <v>1231</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+        <v>120</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C35" s="9">
-        <v>1231</v>
+        <v>9258</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="5">
+        <v>8801</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="9">
-        <v>9258</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="5">
-        <v>8801</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5184</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="11" t="s">
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1">
-        <v>5184</v>
+        <v>1974</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>44</v>
@@ -1897,16 +2097,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1">
-        <v>1974</v>
+        <v>4910</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>56</v>
@@ -1918,32 +2118,6 @@
         <v>56</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4910</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1982,27 +2156,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -2015,17 +2189,17 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -2042,13 +2216,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>56</v>
@@ -2065,19 +2239,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>56</v>
@@ -2088,13 +2262,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -2111,13 +2285,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>56</v>
@@ -2134,13 +2308,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>56</v>
@@ -2157,13 +2331,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>56</v>
@@ -2180,13 +2354,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>56</v>
@@ -2203,13 +2377,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -2226,10 +2400,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
@@ -2262,152 +2436,288 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1">
+        <v>1292</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8563</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>95</v>
+      <c r="D4" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>6472</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>7632</v>
       </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>3265</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>96</v>
+      <c r="D10" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>8764</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
-        <v>97</v>
+      <c r="D12" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" s="1">
+        <v>5489</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8AFB45-1B77-4697-BC84-6F7F6FB22E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832ADCD7-56BC-45FC-9B77-2A650D11843F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -1992,54 +1992,54 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="H38" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="11" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832ADCD7-56BC-45FC-9B77-2A650D11843F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D527BA-F183-4FE9-90B7-6F3F490A3897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="187">
   <si>
     <t>Description</t>
   </si>
@@ -455,33 +455,18 @@
     <t>box 3, 9, 11</t>
   </si>
   <si>
-    <t>3 small chocs (e.g. 3 celebrations), 1 card choice, LVL2-8532</t>
-  </si>
-  <si>
-    <t>pack of sweets, 2 card choices, LVL9-8480</t>
-  </si>
-  <si>
     <t>Card choices:</t>
   </si>
   <si>
     <t>Hacker card - access a chosen teams computer for 5 mins</t>
   </si>
   <si>
-    <t>Citizens arrest card - get Guard Ian to arrest anyone you want</t>
-  </si>
-  <si>
     <t>Super get out of jail free card - When arrested do not spend time in jail and do not get a mark on the board</t>
   </si>
   <si>
     <t>Get out of jail free card x 2 - When arrested do not spend time in jail</t>
   </si>
   <si>
-    <t>Wrongful imprisonment card - Remove a mark on the board and get a LVL1 clue for compensation</t>
-  </si>
-  <si>
-    <t>box of chocs, 2 card choices, sabotage code OR interference code, LVL9-4008</t>
-  </si>
-  <si>
     <t>Sabotage codes:</t>
   </si>
   <si>
@@ -531,6 +516,175 @@
   </si>
   <si>
     <t>SMASH</t>
+  </si>
+  <si>
+    <t>streak</t>
+  </si>
+  <si>
+    <t>streak 12</t>
+  </si>
+  <si>
+    <t>streak 3 6 9</t>
+  </si>
+  <si>
+    <t>4399 2489 2031</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>LVL1 LVL2 LVL3</t>
+  </si>
+  <si>
+    <t>You are on a winning streak. Your skills have helped prove that LVL9. There is a trail of footprints leading away from the clue.</t>
+  </si>
+  <si>
+    <t>footprint</t>
+  </si>
+  <si>
+    <t>You analyse the footprints but it does not help. You follow them. They lead you straight to a locker key. Ask Lou Tennant for the key quoting "footprints" and you shall receive.</t>
+  </si>
+  <si>
+    <t>footprints</t>
+  </si>
+  <si>
+    <t>forensics - footprint (streak 12)</t>
+  </si>
+  <si>
+    <t>Interrogator card - A card that gives your interrogator the skill to ask the right questions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Single sandwich card - Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any one sandwich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from your surveillance tasks - Select a team to eat it - If they refuse, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the team gets arrested (the other team can choose who) - Can be used even if your surveillance task is completed - If not completed, then you get the completion code if they eat it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sandwich menu card - Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a sandwich menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from your surveillance tasks - Select a team to eat one of the sandwiches on the menu - If they refuse, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whole team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gets arrested - Can be used even if your surveillance task is completed - If not completed, then you get the completion code if they eat it</t>
+    </r>
+  </si>
+  <si>
+    <t>X8679X</t>
+  </si>
+  <si>
+    <t>6 digit sandwich code:</t>
+  </si>
+  <si>
+    <t>orange card</t>
+  </si>
+  <si>
+    <t>pink card</t>
+  </si>
+  <si>
+    <t>3 small chocs (e.g. 3 celebrations), 1 pink card, LVL2-8532</t>
+  </si>
+  <si>
+    <t>box of chocs, any 2 cards, sabotage code OR interference code, LVL9-4008</t>
+  </si>
+  <si>
+    <t>pack of sweets, 1 pink card + any card, LVL9-8480</t>
+  </si>
+  <si>
+    <t>Random card - Roll a dice, if you get a 1 2 or 3 you get a level 1 code, 4 = lvl 2 code, 5 = lvl 3 code, 6 = lvl 9 code</t>
+  </si>
+  <si>
+    <t>Trader card - You can trade one code with one team. You can build up good relations with other teams using trader cards. Be careful, if you give them something rubbish then they may give you something rubbish next time!</t>
+  </si>
+  <si>
+    <t>Citizens arrest card - Arrest anyone you want (Guard Ian will help you)</t>
+  </si>
+  <si>
+    <t>Wrongful imprisonment card - Remove a mark on the board and get a LVL2 code for compensation</t>
+  </si>
+  <si>
+    <t>Distraction card - You make a distraction, both the other teams must leave (at the same time) and touch Steve's garden fence and come back, giving your team a short time to hack - Running is allowed so be quick! No cars! You must stop hacking a teams computer when the first person from their team returns. Failure to do so will lead to your arrest.</t>
+  </si>
+  <si>
+    <t>pack of sweets, 1 pink card + any card</t>
   </si>
 </sst>
 </file>
@@ -750,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,6 +1000,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1701,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>65</v>
@@ -1570,7 +1727,7 @@
         <v>8562</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>66</v>
@@ -1596,7 +1753,7 @@
         <v>1654</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>67</v>
@@ -1716,7 +1873,7 @@
         <v>96</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C24" s="9">
         <v>4008</v>
@@ -1993,25 +2150,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>17</v>
@@ -2019,105 +2176,145 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="C41" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C48" s="1">
         <v>5184</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C49" s="1">
         <v>1974</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C50" s="1">
         <v>4910</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2137,17 +2334,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="158.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2418,6 +2615,29 @@
         <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2436,18 +2656,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,7 +2769,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2600,9 +2820,15 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2647,7 +2873,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,7 +2881,7 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,57 +2889,130 @@
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>177</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>151</v>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D527BA-F183-4FE9-90B7-6F3F490A3897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D6E6C3-2066-4CB3-B3A2-F05DCF32FEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -660,9 +660,6 @@
     <t>pink card</t>
   </si>
   <si>
-    <t>3 small chocs (e.g. 3 celebrations), 1 pink card, LVL2-8532</t>
-  </si>
-  <si>
     <t>box of chocs, any 2 cards, sabotage code OR interference code, LVL9-4008</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>Random card - Roll a dice, if you get a 1 2 or 3 you get a level 1 code, 4 = lvl 2 code, 5 = lvl 3 code, 6 = lvl 9 code</t>
   </si>
   <si>
-    <t>Trader card - You can trade one code with one team. You can build up good relations with other teams using trader cards. Be careful, if you give them something rubbish then they may give you something rubbish next time!</t>
-  </si>
-  <si>
     <t>Citizens arrest card - Arrest anyone you want (Guard Ian will help you)</t>
   </si>
   <si>
@@ -685,6 +679,12 @@
   </si>
   <si>
     <t>pack of sweets, 1 pink card + any card</t>
+  </si>
+  <si>
+    <t>3 small chocs (e.g. 3 celebrations), 2 pink cards, LVL2-8532</t>
+  </si>
+  <si>
+    <t>Trader card - You can trade a code with one or both of the other teams. You can build up good relations with other teams using trader cards. Be careful, if you give them something rubbish then they may give you something rubbish next time! You cannot trade a code with a team if you previously traded that code with them.</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +2769,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,7 +2827,7 @@
         <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,7 +2950,7 @@
         <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>176</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
         <v>176</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>176</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D6E6C3-2066-4CB3-B3A2-F05DCF32FEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E96BDBF-8E04-45FD-9176-B840470005C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
   <si>
     <t>Description</t>
   </si>
@@ -685,6 +685,15 @@
   </si>
   <si>
     <t>Trader card - You can trade a code with one or both of the other teams. You can build up good relations with other teams using trader cards. Be careful, if you give them something rubbish then they may give you something rubbish next time! You cannot trade a code with a team if you previously traded that code with them.</t>
+  </si>
+  <si>
+    <t>unlock video 2 kids</t>
+  </si>
+  <si>
+    <t>unlock video 3 package</t>
+  </si>
+  <si>
+    <t>event</t>
   </si>
 </sst>
 </file>
@@ -1319,13 +1328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="180.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2238,6 +2247,22 @@
       <c r="G41" s="13"/>
       <c r="H41" s="11" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2658,7 +2683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E96BDBF-8E04-45FD-9176-B840470005C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF3CBF1-4037-4B74-876C-B1B2C5325135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="192">
   <si>
     <t>Description</t>
   </si>
@@ -694,6 +694,12 @@
   </si>
   <si>
     <t>event</t>
+  </si>
+  <si>
+    <t>Video 2 Unlocked - CSI Game Video Kids</t>
+  </si>
+  <si>
+    <t>Video 3 Unlocked - The Package</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,19 +2256,43 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="C42" s="4">
+        <v>2950</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>189</v>
+      </c>
+      <c r="C43" s="5">
+        <v>9468</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF3CBF1-4037-4B74-876C-B1B2C5325135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ABEA83-F726-4F15-87A7-26FAA9E31D80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="201">
   <si>
     <t>Description</t>
   </si>
@@ -700,6 +700,33 @@
   </si>
   <si>
     <t>Video 3 Unlocked - The Package</t>
+  </si>
+  <si>
+    <t>1558 5584</t>
+  </si>
+  <si>
+    <t>video 2 credits</t>
+  </si>
+  <si>
+    <t>Miss Barney products</t>
+  </si>
+  <si>
+    <t>Kids line up</t>
+  </si>
+  <si>
+    <t>video 2 line up</t>
+  </si>
+  <si>
+    <t>5972 2795 9257</t>
+  </si>
+  <si>
+    <t>Kids running</t>
+  </si>
+  <si>
+    <t>video 2 running</t>
+  </si>
+  <si>
+    <t>LVL3 LVL4 LVL4</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1362,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,6 +2319,66 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="9">
+        <v>7529</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="11" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ABEA83-F726-4F15-87A7-26FAA9E31D80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E2FDD-AADB-4966-B3F1-5273D36C8AAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -1359,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
@@ -2382,81 +2382,81 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C53" s="1">
         <v>5184</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C54" s="1">
         <v>1974</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C55" s="1">
         <v>4910</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E2FDD-AADB-4966-B3F1-5273D36C8AAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E2A0C1-A448-4FD8-90C6-AB53C5FA5DE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="206">
   <si>
     <t>Description</t>
   </si>
@@ -727,6 +727,21 @@
   </si>
   <si>
     <t>LVL3 LVL4 LVL4</t>
+  </si>
+  <si>
+    <t>video 3</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>0750</t>
+  </si>
+  <si>
+    <t>address on package</t>
+  </si>
+  <si>
+    <t>number plate</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,81 +2397,141 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="9">
+        <v>4841</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3431</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C56" s="1">
         <v>5184</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C57" s="1">
         <v>1974</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C58" s="1">
         <v>4910</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E2A0C1-A448-4FD8-90C6-AB53C5FA5DE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9FC206-4870-42E5-AA26-786832040197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="226">
   <si>
     <t>Description</t>
   </si>
@@ -702,6 +702,9 @@
     <t>Video 3 Unlocked - The Package</t>
   </si>
   <si>
+    <t>video 2</t>
+  </si>
+  <si>
     <t>1558 5584</t>
   </si>
   <si>
@@ -742,6 +745,63 @@
   </si>
   <si>
     <t>number plate</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>mulberry</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>barbie</t>
+  </si>
+  <si>
+    <t>You recover the trampled package from Tesco's bin and examine it. It is helpful. LVL2</t>
+  </si>
+  <si>
+    <t>You inspect the doll in the video. A cheap barbie imitation. The clothes when examined reveal some DNA. This is certain evidence. LVL2</t>
+  </si>
+  <si>
+    <t>Barbie proves to be one of Micky's friends. You pay her a visit. She tells you some useful information. LVL2</t>
+  </si>
+  <si>
+    <t>You inspect the car in the video. It needs a clean for sure. The dirt leaves behind lots of tell tale signs. LVL2</t>
+  </si>
+  <si>
+    <t>chaeffeur</t>
+  </si>
+  <si>
+    <t>mug</t>
+  </si>
+  <si>
+    <t>The word chauffeur is misspelt. A clear indication that the criminal cannot spell, narrowing the suspects. LVL9</t>
+  </si>
+  <si>
+    <t>chauffeur</t>
+  </si>
+  <si>
+    <t>The chauffeur is very loyal to Micky and tells you virtually nothing. LVL1</t>
+  </si>
+  <si>
+    <t>ruturn</t>
+  </si>
+  <si>
+    <t>The word ruturn is misspelt. A clear indication that the criminal cannot spell, narrowing the suspects. LVL9</t>
+  </si>
+  <si>
+    <t>The mug is happy to tell you all about Micky's dealings but is a bit too much of a thicky to be of any real help. LVL2</t>
+  </si>
+  <si>
+    <t>You lookup the address on the package and visit it. The owner knows where one of the locker keys is hidden. Ask Lou Tennant for the key quoting "mulberry" and you shall receive. Also you notice a clue at the owners house. LVL9</t>
+  </si>
+  <si>
+    <t>pack of sweets, 2 pink cards + any card</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -2339,13 +2399,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>44</v>
@@ -2359,10 +2419,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C45" s="9">
         <v>7529</v>
@@ -2379,16 +2439,16 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -2399,13 +2459,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="C47" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>44</v>
@@ -2419,10 +2479,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C48" s="9">
         <v>4841</v>
@@ -2439,10 +2499,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C49" s="5">
         <v>3431</v>
@@ -2551,17 +2611,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="158.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="208.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2855,6 +2915,213 @@
         <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2875,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,9 +3348,13 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9FC206-4870-42E5-AA26-786832040197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2EDFC-BDC8-402C-899C-3F8599141615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="249">
   <si>
     <t>Description</t>
   </si>
@@ -802,6 +802,75 @@
   </si>
   <si>
     <t>pack of sweets, 2 pink cards + any card</t>
+  </si>
+  <si>
+    <t>Iona Lott</t>
+  </si>
+  <si>
+    <t>Iva Pencil</t>
+  </si>
+  <si>
+    <t>Ma WeeOui</t>
+  </si>
+  <si>
+    <t>Joe Kerr</t>
+  </si>
+  <si>
+    <t>Robin Banks</t>
+  </si>
+  <si>
+    <t>Anna Fender</t>
+  </si>
+  <si>
+    <t>Mona Lott</t>
+  </si>
+  <si>
+    <t>Micky Takerman</t>
+  </si>
+  <si>
+    <t>Phil McCavity</t>
+  </si>
+  <si>
+    <t>Guard Ian</t>
+  </si>
+  <si>
+    <t>Lou Tennant</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>She owns a lot apparently.</t>
+  </si>
+  <si>
+    <t>A very studious hardworking girl. Armed with a pencil. You look at her study notes. LVL1</t>
+  </si>
+  <si>
+    <t>A pleasant and kind chap. He wants to help you and tells you all he knows. Which isn't much sadly. LVL1</t>
+  </si>
+  <si>
+    <t>Used to be a dentist. Loves dogs.</t>
+  </si>
+  <si>
+    <t>An extremely handsome officer with a rather large belly.</t>
+  </si>
+  <si>
+    <t>A beautiful, lovable, caring officer. She has a real sense of justice.</t>
+  </si>
+  <si>
+    <t>LVL1 … 'nuff said</t>
+  </si>
+  <si>
+    <t>Always makes people laugh. Maybe he's hiding something. He tells you a joke … Somebody robbed the police department yesterday and stole all the toilets. Sadly, the detectives have nothing to go on.</t>
+  </si>
+  <si>
+    <t>Infamous for her ability to hack and wipe criminal records. The police say she's extremely professional for a first time offender.</t>
+  </si>
+  <si>
+    <t>Friendly. Joyful. Talkative. You just listen. LVL2</t>
+  </si>
+  <si>
+    <t>She said someone insulted her but it's just water off a ducks back</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1117,6 +1186,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,7 +2416,7 @@
       <c r="B41" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="34" t="s">
         <v>164</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2611,15 +2683,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="208.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3122,6 +3194,259 @@
         <v>56</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3142,7 +3467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2EDFC-BDC8-402C-899C-3F8599141615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9A6D3-2F6C-4FBC-ABC5-16D31993A38D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -1508,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2228,7 @@
         <v>3001</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="19"/>
@@ -2685,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9A6D3-2F6C-4FBC-ABC5-16D31993A38D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF40ADA-23AB-4536-9AD0-43DDA84B0D72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="265">
   <si>
     <t>Description</t>
   </si>
@@ -654,18 +654,6 @@
     <t>6 digit sandwich code:</t>
   </si>
   <si>
-    <t>orange card</t>
-  </si>
-  <si>
-    <t>pink card</t>
-  </si>
-  <si>
-    <t>box of chocs, any 2 cards, sabotage code OR interference code, LVL9-4008</t>
-  </si>
-  <si>
-    <t>pack of sweets, 1 pink card + any card, LVL9-8480</t>
-  </si>
-  <si>
     <t>Random card - Roll a dice, if you get a 1 2 or 3 you get a level 1 code, 4 = lvl 2 code, 5 = lvl 3 code, 6 = lvl 9 code</t>
   </si>
   <si>
@@ -678,12 +666,6 @@
     <t>Distraction card - You make a distraction, both the other teams must leave (at the same time) and touch Steve's garden fence and come back, giving your team a short time to hack - Running is allowed so be quick! No cars! You must stop hacking a teams computer when the first person from their team returns. Failure to do so will lead to your arrest.</t>
   </si>
   <si>
-    <t>pack of sweets, 1 pink card + any card</t>
-  </si>
-  <si>
-    <t>3 small chocs (e.g. 3 celebrations), 2 pink cards, LVL2-8532</t>
-  </si>
-  <si>
     <t>Trader card - You can trade a code with one or both of the other teams. You can build up good relations with other teams using trader cards. Be careful, if you give them something rubbish then they may give you something rubbish next time! You cannot trade a code with a team if you previously traded that code with them.</t>
   </si>
   <si>
@@ -801,9 +783,6 @@
     <t>You lookup the address on the package and visit it. The owner knows where one of the locker keys is hidden. Ask Lou Tennant for the key quoting "mulberry" and you shall receive. Also you notice a clue at the owners house. LVL9</t>
   </si>
   <si>
-    <t>pack of sweets, 2 pink cards + any card</t>
-  </si>
-  <si>
     <t>Iona Lott</t>
   </si>
   <si>
@@ -871,6 +850,75 @@
   </si>
   <si>
     <t>She said someone insulted her but it's just water off a ducks back</t>
+  </si>
+  <si>
+    <t>red starter codes</t>
+  </si>
+  <si>
+    <t>green starter codes</t>
+  </si>
+  <si>
+    <t>blue starter codes</t>
+  </si>
+  <si>
+    <t>8673 3964 0804</t>
+  </si>
+  <si>
+    <t>9582 0669 2763</t>
+  </si>
+  <si>
+    <t>8454 0375 6649</t>
+  </si>
+  <si>
+    <t>LVL1 LVL1 LVL2</t>
+  </si>
+  <si>
+    <t>pink puzzle</t>
+  </si>
+  <si>
+    <t>yellow puzzle</t>
+  </si>
+  <si>
+    <t>orange puzzle</t>
+  </si>
+  <si>
+    <t>surveillance</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>You have found a key! Ask Lou Tennant for it quoting code 9029 and you shall receive</t>
+  </si>
+  <si>
+    <t>explore complete</t>
+  </si>
+  <si>
+    <t>1 coin</t>
+  </si>
+  <si>
+    <t>2 coins</t>
+  </si>
+  <si>
+    <t>pack of sweets, 4 coins</t>
+  </si>
+  <si>
+    <t>pack of sweets, 3 coins</t>
+  </si>
+  <si>
+    <t>box of chocs, 4 coins, sabotage code OR interference code, LVL9-4008</t>
+  </si>
+  <si>
+    <t>3 small chocs (e.g. 3 celebrations), 2 coins, LVL2-8532</t>
+  </si>
+  <si>
+    <t>pack of sweets, 3 coins, LVL9-8480</t>
+  </si>
+  <si>
+    <t>Chocoloate bar</t>
+  </si>
+  <si>
+    <t>3 milkshakes, 3 coins, LVL2-2299, LVL2-6437, LVL2- 4850, Arrest-0104, handwritten note which says 3 codes are level 2 clues, one will get you arrested, which is which? (note use invisible pen to mark which is not safe)</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,12 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,6 +1233,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,31 +1586,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1623,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2321,18 +2381,18 @@
       <c r="A37" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="17" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2476,7 @@
       <c r="B41" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>164</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2431,16 +2491,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C42" s="4">
         <v>2950</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -2451,16 +2511,16 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5">
         <v>9468</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -2471,13 +2531,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>44</v>
@@ -2491,10 +2551,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C45" s="9">
         <v>7529</v>
@@ -2511,16 +2571,16 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -2531,13 +2591,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>44</v>
@@ -2551,10 +2611,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C48" s="9">
         <v>4841</v>
@@ -2571,10 +2631,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C49" s="5">
         <v>3431</v>
@@ -2589,81 +2649,221 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="4">
+        <v>8062</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="9">
+        <v>4596</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2529</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="26">
+        <v>9029</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C60" s="1">
         <v>5184</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C61" s="1">
         <v>1974</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C62" s="1">
         <v>4910</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2702,27 +2902,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -2735,7 +2935,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2992,13 +3192,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
@@ -3015,13 +3215,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
@@ -3038,13 +3238,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>56</v>
@@ -3061,13 +3261,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>56</v>
@@ -3084,13 +3284,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
@@ -3107,13 +3307,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>56</v>
@@ -3130,13 +3330,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>56</v>
@@ -3153,13 +3353,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>56</v>
@@ -3176,13 +3376,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>56</v>
@@ -3199,13 +3399,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>56</v>
@@ -3222,13 +3422,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>56</v>
@@ -3245,13 +3445,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -3268,13 +3468,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>56</v>
@@ -3291,13 +3491,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>56</v>
@@ -3314,13 +3514,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>56</v>
@@ -3337,13 +3537,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>56</v>
@@ -3360,13 +3560,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>237</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>244</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>56</v>
@@ -3383,13 +3583,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>56</v>
@@ -3406,13 +3606,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>56</v>
@@ -3429,13 +3629,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>56</v>
@@ -3465,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,16 +3680,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3503,7 +3703,7 @@
       <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="38" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3513,7 +3713,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3525,7 +3725,7 @@
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="38" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3533,9 +3733,15 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1">
+        <v>9029</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3543,7 +3749,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3555,7 +3761,7 @@
       <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="38" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3565,7 +3771,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3577,8 +3783,8 @@
       <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>179</v>
+      <c r="D9" s="38" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,7 +3797,7 @@
       <c r="C10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="38" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3601,7 +3807,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3613,7 +3819,7 @@
       <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="38" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3623,7 +3829,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3635,8 +3841,8 @@
       <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>184</v>
+      <c r="D14" s="38" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,7 +3851,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -3657,7 +3863,7 @@
       <c r="C16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="38" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3667,52 +3873,52 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>225</v>
+      <c r="D18" s="38" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="30" t="s">
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
         <v>142</v>
@@ -3720,7 +3926,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
         <v>141</v>
@@ -3728,15 +3934,15 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
         <v>177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
         <v>171</v>
@@ -3744,7 +3950,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s">
         <v>173</v>
@@ -3752,7 +3958,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
         <v>172</v>
@@ -3760,71 +3966,79 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" t="s">
         <v>176</v>
       </c>
-      <c r="B36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>174</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF40ADA-23AB-4536-9AD0-43DDA84B0D72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA9331-6F0D-46DD-BBF9-CC531E77DE41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="267">
   <si>
     <t>Description</t>
   </si>
@@ -919,6 +919,12 @@
   </si>
   <si>
     <t>3 milkshakes, 3 coins, LVL2-2299, LVL2-6437, LVL2- 4850, Arrest-0104, handwritten note which says 3 codes are level 2 clues, one will get you arrested, which is which? (note use invisible pen to mark which is not safe)</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>0310</t>
   </si>
 </sst>
 </file>
@@ -1566,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,6 +2871,20 @@
       </c>
       <c r="H62" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3665,11 +3685,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3977,15 +3995,15 @@
         <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +4011,7 @@
         <v>257</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4001,7 +4019,7 @@
         <v>257</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,36 +4027,36 @@
         <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>174</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA9331-6F0D-46DD-BBF9-CC531E77DE41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78FC725-A994-4A3E-99BC-91C8E26D6B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="270">
   <si>
     <t>Description</t>
   </si>
@@ -925,6 +925,15 @@
   </si>
   <si>
     <t>0310</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>starter pack</t>
+  </si>
+  <si>
+    <t>Where would the music sheet feel at home?</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -2903,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,6 +3676,29 @@
         <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78FC725-A994-4A3E-99BC-91C8E26D6B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC0E38-7706-43C4-A241-75CD1E37E64C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -933,7 +933,7 @@
     <t>starter pack</t>
   </si>
   <si>
-    <t>Where would the music sheet feel at home?</t>
+    <t>Where would the music sheet feel at home? What is the song number?</t>
   </si>
 </sst>
 </file>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC0E38-7706-43C4-A241-75CD1E37E64C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A3DE1-4F66-4F34-A273-63CD52C67785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="272">
   <si>
     <t>Description</t>
   </si>
@@ -934,6 +934,12 @@
   </si>
   <si>
     <t>Where would the music sheet feel at home? What is the song number?</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>This seems to be the hair from an animal that was found at the crime scene. The criminal must have a pet. And there is more. LVL2</t>
   </si>
 </sst>
 </file>
@@ -2912,10 +2918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,6 +3705,29 @@
         <v>56</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A3DE1-4F66-4F34-A273-63CD52C67785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FA7220-0C81-4B24-9E7E-EDE6594B4178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="271">
   <si>
     <t>Description</t>
   </si>
@@ -646,9 +646,6 @@
       </rPr>
       <t xml:space="preserve"> gets arrested - Can be used even if your surveillance task is completed - If not completed, then you get the completion code if they eat it</t>
     </r>
-  </si>
-  <si>
-    <t>X8679X</t>
   </si>
   <si>
     <t>6 digit sandwich code:</t>
@@ -2512,16 +2509,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="4">
         <v>2950</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -2532,16 +2529,16 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="C43" s="5">
         <v>9468</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -2552,13 +2549,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>44</v>
@@ -2572,10 +2569,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="C45" s="9">
         <v>7529</v>
@@ -2592,16 +2589,16 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -2612,13 +2609,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>44</v>
@@ -2632,10 +2629,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C48" s="9">
         <v>4841</v>
@@ -2652,10 +2649,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="5">
         <v>3431</v>
@@ -2672,16 +2669,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -2692,16 +2689,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -2712,16 +2709,16 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -2732,10 +2729,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53" s="4">
         <v>8062</v>
@@ -2752,10 +2749,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54" s="9">
         <v>4596</v>
@@ -2772,10 +2769,10 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="C55" s="5">
         <v>2529</v>
@@ -2792,16 +2789,16 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" s="26">
         <v>9029</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
@@ -2890,13 +2887,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>93</v>
@@ -2920,7 +2917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -3227,13 +3224,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
@@ -3250,13 +3247,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
@@ -3273,13 +3270,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>56</v>
@@ -3296,13 +3293,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>56</v>
@@ -3319,13 +3316,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
@@ -3342,13 +3339,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>56</v>
@@ -3365,13 +3362,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>56</v>
@@ -3388,13 +3385,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>56</v>
@@ -3411,13 +3408,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>56</v>
@@ -3434,13 +3431,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>56</v>
@@ -3457,13 +3454,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>56</v>
@@ -3480,13 +3477,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -3503,13 +3500,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>56</v>
@@ -3526,13 +3523,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>56</v>
@@ -3549,13 +3546,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>56</v>
@@ -3572,13 +3569,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>56</v>
@@ -3595,13 +3592,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>56</v>
@@ -3618,13 +3615,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>56</v>
@@ -3641,13 +3638,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>56</v>
@@ -3664,13 +3661,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>56</v>
@@ -3687,13 +3684,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>56</v>
@@ -3710,13 +3707,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>56</v>
@@ -3746,9 +3743,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3816,10 +3815,10 @@
         <v>9029</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3863,7 +3862,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,7 +3920,7 @@
         <v>170</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,11 +3958,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,7 +3978,7 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,7 +3986,7 @@
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,7 +3996,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
         <v>142</v>
@@ -4005,7 +4004,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
         <v>141</v>
@@ -4013,15 +4012,15 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
         <v>171</v>
@@ -4029,7 +4028,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
         <v>173</v>
@@ -4037,7 +4036,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
         <v>172</v>
@@ -4045,39 +4044,39 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
         <v>140</v>
@@ -4085,40 +4084,40 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8679</v>
       </c>
     </row>
   </sheetData>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FA7220-0C81-4B24-9E7E-EDE6594B4178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC9A637-AA80-4212-86CC-5AB4496D4267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="276">
   <si>
     <t>Description</t>
   </si>
@@ -937,6 +937,21 @@
   </si>
   <si>
     <t>This seems to be the hair from an animal that was found at the crime scene. The criminal must have a pet. And there is more. LVL2</t>
+  </si>
+  <si>
+    <t>music sheet song</t>
+  </si>
+  <si>
+    <t>back of music stand</t>
+  </si>
+  <si>
+    <t>music sheet</t>
+  </si>
+  <si>
+    <t>Examining the back of the music stand reveals a valuable clue, the net tightens on the criminal. LVL9. You have also found a key! Ask Lou Tennant for it quoting code 7499 and you shall receive</t>
+  </si>
+  <si>
+    <t>3 sour lollies, 5 coins</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1602,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,6 +2822,46 @@
         <v>17</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1376</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" s="5">
+        <v>7499</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>128</v>
@@ -2897,6 +2952,18 @@
       </c>
       <c r="D63" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3745,8 +3812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,9 +4016,15 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="1">
+        <v>7499</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC9A637-AA80-4212-86CC-5AB4496D4267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADB7324-5021-4D0F-9DC6-8EE132C14E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="280">
   <si>
     <t>Description</t>
   </si>
@@ -952,6 +952,18 @@
   </si>
   <si>
     <t>3 sour lollies, 5 coins</t>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
+    <t>photos</t>
+  </si>
+  <si>
+    <t>2020 1977 5298 1664</t>
+  </si>
+  <si>
+    <t>LVL2 LVL2 LVL2 LVL2</t>
   </si>
 </sst>
 </file>
@@ -1599,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,107 +2874,127 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C66" s="1">
         <v>5184</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C67" s="1">
         <v>1974</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C68" s="1">
         <v>4910</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C69" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H63" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3812,7 +3844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADB7324-5021-4D0F-9DC6-8EE132C14E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB129C-C8D5-40DF-B8B2-5502A54F5DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="284">
   <si>
     <t>Description</t>
   </si>
@@ -964,6 +964,18 @@
   </si>
   <si>
     <t>LVL2 LVL2 LVL2 LVL2</t>
+  </si>
+  <si>
+    <t>9643 6734 1221</t>
+  </si>
+  <si>
+    <t>LVL3 LVL3 LVL3</t>
+  </si>
+  <si>
+    <t>greenrock RGB</t>
+  </si>
+  <si>
+    <t>training RGB</t>
   </si>
 </sst>
 </file>
@@ -1613,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,6 +2903,26 @@
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="25" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB129C-C8D5-40DF-B8B2-5502A54F5DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873E38F-9F04-49D3-A086-5A656587B265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="283">
   <si>
     <t>Description</t>
   </si>
@@ -919,9 +919,6 @@
   </si>
   <si>
     <t>birthday</t>
-  </si>
-  <si>
-    <t>0310</t>
   </si>
   <si>
     <t>music</t>
@@ -1626,7 +1623,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,10 +2845,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C57" s="4">
         <v>1376</v>
@@ -2868,16 +2865,16 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="C58" s="5">
         <v>7499</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
@@ -2888,16 +2885,16 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B59" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="C59" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="D59" s="26" t="s">
         <v>278</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>279</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
@@ -2908,16 +2905,16 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>283</v>
-      </c>
       <c r="C60" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>280</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>281</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
@@ -3011,8 +3008,8 @@
       <c r="B69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="31" t="s">
-        <v>265</v>
+      <c r="C69" s="31">
+        <v>1003</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>93</v>
@@ -3815,13 +3812,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>56</v>
@@ -3838,13 +3835,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>56</v>
@@ -4084,10 +4081,10 @@
         <v>7499</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873E38F-9F04-49D3-A086-5A656587B265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F25DD-77D1-422A-844B-F4C6E936BE82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="283">
   <si>
     <t>Description</t>
   </si>
@@ -1620,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,107 +2923,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C61" s="4">
         <v>5184</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D61" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B62" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C62" s="9">
         <v>1974</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D62" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B63" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C63" s="9">
         <v>4910</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D63" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C64" s="32">
         <v>1003</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D64" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="11" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F25DD-77D1-422A-844B-F4C6E936BE82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A31085F-2488-4EE8-BB31-FBC56DAB9D4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="298">
   <si>
     <t>Description</t>
   </si>
@@ -973,6 +973,51 @@
   </si>
   <si>
     <t>training RGB</t>
+  </si>
+  <si>
+    <t>sians codes</t>
+  </si>
+  <si>
+    <t>5977 6979 1931 6880 8447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1361 4911 7931 6084 6521 2216 2636 0276 2837 7650 </t>
+  </si>
+  <si>
+    <t>2951 5158 7226</t>
+  </si>
+  <si>
+    <t>8759 5464 4999</t>
+  </si>
+  <si>
+    <t>9969 0531 3197</t>
+  </si>
+  <si>
+    <t>LVL4</t>
+  </si>
+  <si>
+    <t>3869 6095 8311</t>
+  </si>
+  <si>
+    <t>dans codes</t>
+  </si>
+  <si>
+    <t>4977 5979 0931 5880 7447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0361 3911 6931 5084 5521 1216 1636 9276 1837 6650 </t>
+  </si>
+  <si>
+    <t>1951 4158 6226</t>
+  </si>
+  <si>
+    <t>7759 4464 3999</t>
+  </si>
+  <si>
+    <t>8969 9531 2197</t>
+  </si>
+  <si>
+    <t>2869 5095 7311</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,6 +3045,206 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
       <c r="H64" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="11" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A31085F-2488-4EE8-BB31-FBC56DAB9D4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3D8FC-6641-4B1E-A4BA-81BC43CD9570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="301">
   <si>
     <t>Description</t>
   </si>
@@ -1018,6 +1018,15 @@
   </si>
   <si>
     <t>2869 5095 7311</t>
+  </si>
+  <si>
+    <t>museum leaflet</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>dinosaur</t>
   </si>
 </sst>
 </file>
@@ -1665,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,6 +3257,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="26">
+        <v>4884</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="H1:H2"/>
@@ -3264,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4075,6 +4104,27 @@
       </c>
       <c r="G35" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3D8FC-6641-4B1E-A4BA-81BC43CD9570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6FC50-4F21-4A36-9942-0A09EAE775F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="306">
   <si>
     <t>Description</t>
   </si>
@@ -1027,6 +1027,21 @@
   </si>
   <si>
     <t>dinosaur</t>
+  </si>
+  <si>
+    <t>There is a giraffe in the museum. The criminal must have long legs. Seriously! The fact that there is a giraffe in the museum really does not help your case at all.</t>
+  </si>
+  <si>
+    <t>I'm not sure what a dinosaur has to do with this case. But I feel sorry for you. Have a clue. LVL1</t>
+  </si>
+  <si>
+    <t>cctv</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>You notice the CCTV cameras at the museum. You wonder if they were on when the crime was committed. The museum informs you they were and provides you with CCTV footage. Video unlocked.</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
@@ -3293,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,6 +4128,21 @@
       <c r="B36" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -4121,10 +4151,66 @@
       <c r="B37" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>298</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6FC50-4F21-4A36-9942-0A09EAE775F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4CFAD2-23B8-49B8-A446-C21074C5CECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="325">
   <si>
     <t>Description</t>
   </si>
@@ -1042,6 +1042,63 @@
   </si>
   <si>
     <t>You notice the CCTV cameras at the museum. You wonder if they were on when the crime was committed. The museum informs you they were and provides you with CCTV footage. Video unlocked.</t>
+  </si>
+  <si>
+    <t>biscuit</t>
+  </si>
+  <si>
+    <t>video 4</t>
+  </si>
+  <si>
+    <t>Ask Lou Tennant for the key quoting "biscuits" and you shall receive. Note that this is a shared locker which other teams can use and the biscuits should stay in the locker.</t>
+  </si>
+  <si>
+    <t>paper on wall</t>
+  </si>
+  <si>
+    <t>binary code</t>
+  </si>
+  <si>
+    <t>Joshua 24:15</t>
+  </si>
+  <si>
+    <t>biscuits</t>
+  </si>
+  <si>
+    <t>pack of biscuits, 2 coins</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>nunchuck</t>
+  </si>
+  <si>
+    <t>glove</t>
+  </si>
+  <si>
+    <t>sock</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>A weapon is always a useful clue when staking out a criminal. LVL2</t>
+  </si>
+  <si>
+    <t>Part of the villain's cunning disguise which is clearly evident in the CCTV footage. You analyse it thoroughly. LVL2</t>
+  </si>
+  <si>
+    <t>Part of the villain's cunning disguise which is clearly evident in the CCTV footage. You analyse it thoroughly. LVL1</t>
+  </si>
+  <si>
+    <t>Part of the villain's cunning disguise. You notice that the felon is actually wearing socks on their hands which is clearly evident in the CCTV footage. Be careful if you ever need to shake hands with this masked bandit, could be cheesy … LVL3</t>
+  </si>
+  <si>
+    <t>The villain in the CCTV footage is using a powerful flashlight. Checking out local shops which sell this flashlight will help narrow the suspects. LVL2</t>
   </si>
 </sst>
 </file>
@@ -1689,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,6 +3349,66 @@
         <v>17</v>
       </c>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="4">
+        <v>4111</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C79" s="9">
+        <v>5098</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2415</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="H1:H2"/>
@@ -3308,17 +3425,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="208.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="217.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -4210,6 +4327,167 @@
         <v>56</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4231,7 +4509,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4390,9 +4668,15 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4CFAD2-23B8-49B8-A446-C21074C5CECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C944F7-274F-4EB9-8321-0DD94B038100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="338">
   <si>
     <t>Description</t>
   </si>
@@ -975,6 +975,9 @@
     <t>training RGB</t>
   </si>
   <si>
+    <t>LVL2 LVL2 LVL2</t>
+  </si>
+  <si>
     <t>sians codes</t>
   </si>
   <si>
@@ -1099,6 +1102,42 @@
   </si>
   <si>
     <t>The villain in the CCTV footage is using a powerful flashlight. Checking out local shops which sell this flashlight will help narrow the suspects. LVL2</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>0717 0817 1818</t>
+  </si>
+  <si>
+    <t>red interrogator codes</t>
+  </si>
+  <si>
+    <t>interrogator, not red</t>
+  </si>
+  <si>
+    <t>anyone else</t>
+  </si>
+  <si>
+    <t>ARREST for trying to interrogate your own team OR ARREST for espoinage by using a code …</t>
+  </si>
+  <si>
+    <t>green interrogator codes</t>
+  </si>
+  <si>
+    <t>1817 0538 0771</t>
+  </si>
+  <si>
+    <t>interrogator, not green</t>
+  </si>
+  <si>
+    <t>blue interrogator codes</t>
+  </si>
+  <si>
+    <t>9518 9818 9538</t>
+  </si>
+  <si>
+    <t>interrogator, not blue</t>
   </si>
 </sst>
 </file>
@@ -1746,19 +1785,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="180.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -3131,13 +3170,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>115</v>
@@ -3153,7 +3192,7 @@
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>44</v>
@@ -3169,7 +3208,7 @@
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>120</v>
@@ -3185,10 +3224,10 @@
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -3201,7 +3240,7 @@
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>93</v>
@@ -3217,7 +3256,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -3231,13 +3270,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>115</v>
@@ -3253,7 +3292,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>44</v>
@@ -3269,7 +3308,7 @@
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>120</v>
@@ -3285,10 +3324,10 @@
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -3301,7 +3340,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>93</v>
@@ -3317,7 +3356,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -3331,10 +3370,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C77" s="26">
         <v>4884</v>
@@ -3351,10 +3390,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C78" s="4">
         <v>4111</v>
@@ -3371,10 +3410,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C79" s="9">
         <v>5098</v>
@@ -3391,10 +3430,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C80" s="5">
         <v>2415</v>
@@ -3406,6 +3445,84 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H83" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3427,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -4240,13 +4357,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>56</v>
@@ -4263,13 +4380,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>56</v>
@@ -4286,13 +4403,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>56</v>
@@ -4309,13 +4426,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>56</v>
@@ -4332,13 +4449,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>56</v>
@@ -4355,13 +4472,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>56</v>
@@ -4378,13 +4495,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>56</v>
@@ -4401,13 +4518,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>56</v>
@@ -4424,13 +4541,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>56</v>
@@ -4447,13 +4564,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>56</v>
@@ -4470,13 +4587,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>56</v>
@@ -4508,7 +4625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -4669,13 +4786,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C944F7-274F-4EB9-8321-0DD94B038100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630BDAC5-8249-4F17-94E7-0A47165ED6DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -1453,6 +1453,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1464,12 +1470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,31 +1805,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3001,9 +3001,9 @@
       <c r="D56" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="25" t="s">
         <v>17</v>
       </c>
@@ -3061,9 +3061,9 @@
       <c r="D59" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
       <c r="H59" s="25" t="s">
         <v>17</v>
       </c>
@@ -3081,9 +3081,9 @@
       <c r="D60" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
       <c r="H60" s="25" t="s">
         <v>17</v>
       </c>
@@ -3381,9 +3381,9 @@
       <c r="D77" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
       <c r="H77" s="25" t="s">
         <v>17</v>
       </c>
@@ -3561,27 +3561,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4661,7 +4661,7 @@
       <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="34" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="38"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4683,7 +4683,7 @@
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       <c r="C5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="34" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="38"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4719,7 +4719,7 @@
       <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="34" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="38"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4741,7 +4741,7 @@
       <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       <c r="C10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -4777,7 +4777,7 @@
       <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       <c r="C13" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="34" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="34" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -4827,7 +4827,7 @@
       <c r="C16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="34" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       <c r="C17" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="34" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="34" t="s">
         <v>257</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630BDAC5-8249-4F17-94E7-0A47165ED6DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4CFF8-6E28-4954-B468-56E398333E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="323">
   <si>
     <t>Description</t>
   </si>
@@ -455,18 +455,6 @@
     <t>box 3, 9, 11</t>
   </si>
   <si>
-    <t>Card choices:</t>
-  </si>
-  <si>
-    <t>Hacker card - access a chosen teams computer for 5 mins</t>
-  </si>
-  <si>
-    <t>Super get out of jail free card - When arrested do not spend time in jail and do not get a mark on the board</t>
-  </si>
-  <si>
-    <t>Get out of jail free card x 2 - When arrested do not spend time in jail</t>
-  </si>
-  <si>
     <t>Sabotage codes:</t>
   </si>
   <si>
@@ -551,121 +539,9 @@
     <t>forensics - footprint (streak 12)</t>
   </si>
   <si>
-    <t>Interrogator card - A card that gives your interrogator the skill to ask the right questions</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Single sandwich card - Choose </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>any one sandwich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from your surveillance tasks - Select a team to eat it - If they refuse, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>one person</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from the team gets arrested (the other team can choose who) - Can be used even if your surveillance task is completed - If not completed, then you get the completion code if they eat it</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sandwich menu card - Choose </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a sandwich menu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from your surveillance tasks - Select a team to eat one of the sandwiches on the menu - If they refuse, the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>whole team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> gets arrested - Can be used even if your surveillance task is completed - If not completed, then you get the completion code if they eat it</t>
-    </r>
-  </si>
-  <si>
     <t>6 digit sandwich code:</t>
   </si>
   <si>
-    <t>Random card - Roll a dice, if you get a 1 2 or 3 you get a level 1 code, 4 = lvl 2 code, 5 = lvl 3 code, 6 = lvl 9 code</t>
-  </si>
-  <si>
-    <t>Citizens arrest card - Arrest anyone you want (Guard Ian will help you)</t>
-  </si>
-  <si>
-    <t>Wrongful imprisonment card - Remove a mark on the board and get a LVL2 code for compensation</t>
-  </si>
-  <si>
-    <t>Distraction card - You make a distraction, both the other teams must leave (at the same time) and touch Steve's garden fence and come back, giving your team a short time to hack - Running is allowed so be quick! No cars! You must stop hacking a teams computer when the first person from their team returns. Failure to do so will lead to your arrest.</t>
-  </si>
-  <si>
-    <t>Trader card - You can trade a code with one or both of the other teams. You can build up good relations with other teams using trader cards. Be careful, if you give them something rubbish then they may give you something rubbish next time! You cannot trade a code with a team if you previously traded that code with them.</t>
-  </si>
-  <si>
     <t>unlock video 2 kids</t>
   </si>
   <si>
@@ -891,12 +767,6 @@
     <t>explore complete</t>
   </si>
   <si>
-    <t>1 coin</t>
-  </si>
-  <si>
-    <t>2 coins</t>
-  </si>
-  <si>
     <t>pack of sweets, 4 coins</t>
   </si>
   <si>
@@ -910,9 +780,6 @@
   </si>
   <si>
     <t>pack of sweets, 3 coins, LVL9-8480</t>
-  </si>
-  <si>
-    <t>Chocoloate bar</t>
   </si>
   <si>
     <t>3 milkshakes, 3 coins, LVL2-2299, LVL2-6437, LVL2- 4850, Arrest-0104, handwritten note which says 3 codes are level 2 clues, one will get you arrested, which is which? (note use invisible pen to mark which is not safe)</t>
@@ -1787,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2036,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>65</v>
@@ -2195,7 +2062,7 @@
         <v>8562</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>66</v>
@@ -2221,7 +2088,7 @@
         <v>1654</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>67</v>
@@ -2341,7 +2208,7 @@
         <v>96</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C24" s="9">
         <v>4008</v>
@@ -2618,25 +2485,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>17</v>
@@ -2644,25 +2511,25 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>17</v>
@@ -2670,16 +2537,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -2690,16 +2557,16 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>164</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -2710,16 +2577,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C42" s="4">
         <v>2950</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -2730,16 +2597,16 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C43" s="5">
         <v>9468</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -2750,13 +2617,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>44</v>
@@ -2770,10 +2637,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C45" s="9">
         <v>7529</v>
@@ -2790,16 +2657,16 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -2810,13 +2677,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>44</v>
@@ -2830,10 +2697,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C48" s="9">
         <v>4841</v>
@@ -2850,10 +2717,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C49" s="5">
         <v>3431</v>
@@ -2870,16 +2737,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -2890,16 +2757,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -2910,16 +2777,16 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -2930,10 +2797,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C53" s="4">
         <v>8062</v>
@@ -2950,10 +2817,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C54" s="9">
         <v>4596</v>
@@ -2970,10 +2837,10 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C55" s="5">
         <v>2529</v>
@@ -2990,16 +2857,16 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C56" s="26">
         <v>9029</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
@@ -3010,10 +2877,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C57" s="4">
         <v>1376</v>
@@ -3030,16 +2897,16 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C58" s="5">
         <v>7499</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
@@ -3050,16 +2917,16 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
@@ -3070,16 +2937,16 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
@@ -3150,7 +3017,7 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>55</v>
@@ -3170,13 +3037,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>115</v>
@@ -3192,7 +3059,7 @@
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>44</v>
@@ -3208,7 +3075,7 @@
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>120</v>
@@ -3224,10 +3091,10 @@
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -3240,7 +3107,7 @@
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>93</v>
@@ -3256,7 +3123,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -3270,13 +3137,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>115</v>
@@ -3292,7 +3159,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>44</v>
@@ -3308,7 +3175,7 @@
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>120</v>
@@ -3324,10 +3191,10 @@
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -3340,7 +3207,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>93</v>
@@ -3356,7 +3223,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -3370,10 +3237,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C77" s="26">
         <v>4884</v>
@@ -3390,10 +3257,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C78" s="4">
         <v>4111</v>
@@ -3410,10 +3277,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C79" s="9">
         <v>5098</v>
@@ -3430,10 +3297,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C80" s="5">
         <v>2415</v>
@@ -3450,25 +3317,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>17</v>
@@ -3476,25 +3343,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>17</v>
@@ -3502,25 +3369,25 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>17</v>
@@ -3828,13 +3695,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>56</v>
@@ -3851,13 +3718,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
@@ -3874,13 +3741,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
@@ -3897,13 +3764,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>56</v>
@@ -3920,13 +3787,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>56</v>
@@ -3943,13 +3810,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
@@ -3966,13 +3833,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>56</v>
@@ -3989,13 +3856,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>56</v>
@@ -4012,13 +3879,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>56</v>
@@ -4035,13 +3902,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>56</v>
@@ -4058,13 +3925,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>56</v>
@@ -4081,13 +3948,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>56</v>
@@ -4104,13 +3971,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -4127,13 +3994,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>56</v>
@@ -4150,13 +4017,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>56</v>
@@ -4173,13 +4040,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>56</v>
@@ -4196,13 +4063,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>56</v>
@@ -4219,13 +4086,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>56</v>
@@ -4242,13 +4109,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>56</v>
@@ -4265,13 +4132,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>56</v>
@@ -4288,13 +4155,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>56</v>
@@ -4311,13 +4178,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>56</v>
@@ -4334,13 +4201,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>56</v>
@@ -4357,13 +4224,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>56</v>
@@ -4380,13 +4247,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>56</v>
@@ -4403,13 +4270,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>56</v>
@@ -4426,13 +4293,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>56</v>
@@ -4449,13 +4316,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>56</v>
@@ -4472,13 +4339,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>56</v>
@@ -4495,13 +4362,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>56</v>
@@ -4518,13 +4385,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>56</v>
@@ -4541,13 +4408,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>56</v>
@@ -4564,13 +4431,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>56</v>
@@ -4587,13 +4454,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>56</v>
@@ -4623,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4695,10 +4562,10 @@
         <v>9029</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4742,7 +4609,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4786,13 +4653,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,13 +4667,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,10 +4706,10 @@
         <v>7499</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,11 +4717,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="34" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4862,7 +4729,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4870,7 +4737,7 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4878,137 +4745,39 @@
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="30"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>255</v>
-      </c>
-      <c r="B28" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B29" t="s">
-        <v>171</v>
+      <c r="A29" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>255</v>
-      </c>
-      <c r="B34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>256</v>
-      </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A32" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>8679</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4CFF8-6E28-4954-B468-56E398333E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71D4C5-91B6-447E-8499-54C77FFCB400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="327">
   <si>
     <t>Description</t>
   </si>
@@ -1005,6 +1005,18 @@
   </si>
   <si>
     <t>interrogator, not blue</t>
+  </si>
+  <si>
+    <t>woods mission codes</t>
+  </si>
+  <si>
+    <t>wood mission</t>
+  </si>
+  <si>
+    <t>7339 9513 9292 0888 2550 6990</t>
+  </si>
+  <si>
+    <t>This is a woods mission code - there are 6 of these codes but you only need 4 - Give 4 of them to Lou Tenant for a prize</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1325,6 +1337,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1652,9 +1670,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
@@ -1672,31 +1690,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +1727,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3390,6 +3408,26 @@
         <v>315</v>
       </c>
       <c r="H83" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3428,27 +3466,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +3499,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4492,7 +4530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71D4C5-91B6-447E-8499-54C77FFCB400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4465FDD-0CDC-4732-8BD7-5F60C93A7E82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="339">
   <si>
     <t>Description</t>
   </si>
@@ -1016,7 +1016,43 @@
     <t>7339 9513 9292 0888 2550 6990</t>
   </si>
   <si>
-    <t>This is a woods mission code - there are 6 of these codes but you only need 4 - Give 4 of them to Lou Tenant for a prize</t>
+    <t>This is a woods mission code - there are 6 of these codes but you only need 4 - Give 4 of them to Lou Tenant for a prize. LVL2</t>
+  </si>
+  <si>
+    <t>any 4 woods mission codes confirmed - red team</t>
+  </si>
+  <si>
+    <t>any 4 woods mission codes confirmed - green team</t>
+  </si>
+  <si>
+    <t>any 4 woods mission codes confirmed - blue team</t>
+  </si>
+  <si>
+    <t>Prize3</t>
+  </si>
+  <si>
+    <t>woods mission</t>
+  </si>
+  <si>
+    <t>box codes</t>
+  </si>
+  <si>
+    <t>box 2, 10, 14</t>
+  </si>
+  <si>
+    <t>9255 1543 9032</t>
+  </si>
+  <si>
+    <t>LVL9 LVL9 LVL9</t>
+  </si>
+  <si>
+    <t>3 peperamis, 5 coins, sabotage code OR interference code, LVL9-9255, LVL9-1543, LVL9-9032</t>
+  </si>
+  <si>
+    <t>4979 4528 4012</t>
+  </si>
+  <si>
+    <t>5743 8534 2377</t>
   </si>
 </sst>
 </file>
@@ -1670,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,103 +2277,101 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>96</v>
+        <v>332</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="9">
-        <v>8480</v>
+        <v>333</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="9">
+        <v>8480</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>3221</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C28" s="5">
         <v>4865</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="10" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2349,7 +2383,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -2361,78 +2395,78 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="5" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C33" s="4">
         <v>3001</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="9">
-        <v>4142</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="10" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="9">
-        <v>1231</v>
+        <v>4142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
@@ -2443,16 +2477,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="9">
-        <v>9258</v>
+        <v>1231</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -2461,230 +2495,242 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="9">
+        <v>9258</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="5">
         <v>8801</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C38" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D38" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="H39" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B41" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C41" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="H42" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C44" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C45" s="4">
         <v>2950</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="5">
-        <v>9468</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="9">
-        <v>7529</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="10" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9468</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -2695,13 +2741,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>44</v>
@@ -2715,36 +2761,36 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C48" s="9">
-        <v>4841</v>
+        <v>7529</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="5">
-        <v>3431</v>
+        <v>181</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -2755,16 +2801,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>232</v>
+        <v>183</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -2775,16 +2821,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>233</v>
+        <v>183</v>
+      </c>
+      <c r="C51" s="9">
+        <v>4841</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -2795,16 +2841,16 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>234</v>
+        <v>183</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3431</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -2815,16 +2861,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="4">
-        <v>8062</v>
+        <v>57</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -2835,16 +2881,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C54" s="9">
-        <v>4596</v>
+        <v>58</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -2855,16 +2901,16 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2529</v>
+        <v>59</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -2873,58 +2919,58 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B56" s="26" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="26">
-        <v>9029</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="25" t="s">
+      <c r="C56" s="4">
+        <v>8062</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1376</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="7" t="s">
+      <c r="A57" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="9">
+        <v>4596</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C58" s="5">
-        <v>7499</v>
+        <v>2529</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
@@ -2935,16 +2981,16 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="C59" s="26">
+        <v>9029</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
@@ -2953,171 +2999,183 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1376</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="5">
+        <v>7499</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B63" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C63" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D63" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C64" s="4">
         <v>5184</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C65" s="9">
         <v>1974</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D65" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C66" s="9">
         <v>4910</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C67" s="32">
         <v>1003</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3125,10 +3183,10 @@
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -3137,39 +3195,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="11" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="7" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3177,10 +3231,10 @@
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -3189,35 +3243,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10" t="s">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="H73" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="10" t="s">
+      <c r="A74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3225,10 +3283,10 @@
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -3237,197 +3295,245 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="5" t="s">
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="G79" s="13"/>
+      <c r="H79" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B80" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C77" s="26">
+      <c r="C80" s="26">
         <v>4884</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D80" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C78" s="4">
-        <v>4111</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C79" s="9">
-        <v>5098</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C80" s="5">
-        <v>2415</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="11" t="s">
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
+      </c>
+      <c r="C81" s="4">
+        <v>4111</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>315</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
       <c r="H81" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>318</v>
+        <v>293</v>
+      </c>
+      <c r="C82" s="9">
+        <v>5098</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>315</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2415</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="35" t="s">
+      <c r="H86" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B87" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C87" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D87" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="36" t="s">
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4528,16 +4634,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4574,9 +4680,15 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4668,9 +4780,15 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -4718,9 +4836,15 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="34"/>
+      <c r="B15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -4786,36 +4910,44 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>8679</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4465FDD-0CDC-4732-8BD7-5F60C93A7E82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53FD36-3F0A-490F-BBDD-96E128BC2BD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="349">
   <si>
     <t>Description</t>
   </si>
@@ -1046,13 +1046,43 @@
     <t>LVL9 LVL9 LVL9</t>
   </si>
   <si>
-    <t>3 peperamis, 5 coins, sabotage code OR interference code, LVL9-9255, LVL9-1543, LVL9-9032</t>
-  </si>
-  <si>
     <t>4979 4528 4012</t>
   </si>
   <si>
     <t>5743 8534 2377</t>
+  </si>
+  <si>
+    <t>mixup mission</t>
+  </si>
+  <si>
+    <t>mixup codes</t>
+  </si>
+  <si>
+    <t>5994 9268 9783 0433 2647 8496 2856 6458 0745 3790</t>
+  </si>
+  <si>
+    <t>9654 3796 3675 3689 9864 4895 3677 9052 5629 4689</t>
+  </si>
+  <si>
+    <t>0134 9646 3408</t>
+  </si>
+  <si>
+    <t>ARREST for getting mixed up</t>
+  </si>
+  <si>
+    <t>9644 2357 8695 4673</t>
+  </si>
+  <si>
+    <t>LVL3 LVL3 LVL3 LVL9</t>
+  </si>
+  <si>
+    <t>You have found a key! Ask Lou Tennant for it quoting code 6320 and you shall receive</t>
+  </si>
+  <si>
+    <t>3 milkshakes, 5 coins</t>
+  </si>
+  <si>
+    <t>3 peperamis, 8 coins, sabotage code OR interference code, LVL9-9255, LVL9-1543, LVL9-9032</t>
   </si>
 </sst>
 </file>
@@ -1706,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,7 +2619,7 @@
         <v>130</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>154</v>
@@ -2615,7 +2645,7 @@
         <v>130</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>150</v>
@@ -3534,6 +3564,80 @@
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="1">
+        <v>8794</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="1">
+        <v>4789</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="1">
+        <v>6320</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3555,7 +3659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -4637,7 +4741,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4722,9 +4826,15 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="1">
+        <v>6320</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4915,7 +5025,7 @@
         <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53FD36-3F0A-490F-BBDD-96E128BC2BD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA47A540-2DB7-4F06-9CF2-FEBD4A38BB51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="349">
   <si>
     <t>Description</t>
   </si>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,76 +3568,118 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C89" s="1" t="s">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="9" t="s">
         <v>345</v>
       </c>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C91" s="1" t="s">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="G91" s="15"/>
+      <c r="H91" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="1">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9">
         <v>8794</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="G92" s="15"/>
+      <c r="H92" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C93" s="1">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9">
         <v>4789</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C94" s="1">
+      <c r="G93" s="15"/>
+      <c r="H93" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5">
         <v>6320</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="11" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA47A540-2DB7-4F06-9CF2-FEBD4A38BB51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B09ABD-5B2A-44F2-97EF-E93848A2124A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="352">
   <si>
     <t>Description</t>
   </si>
@@ -1083,6 +1083,15 @@
   </si>
   <si>
     <t>3 peperamis, 8 coins, sabotage code OR interference code, LVL9-9255, LVL9-1543, LVL9-9032</t>
+  </si>
+  <si>
+    <t>downtime winner</t>
+  </si>
+  <si>
+    <t>ARREST for espionage because they used an analyst only code</t>
+  </si>
+  <si>
+    <t>3 twixes, 3 kitkats, 5 coins</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,6 +1137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1420,6 +1435,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1738,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="E33" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,9 +2763,15 @@
       <c r="D45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="E45" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>53</v>
+      </c>
       <c r="H45" s="7" t="s">
         <v>17</v>
       </c>
@@ -2762,9 +2789,15 @@
       <c r="D46" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="E46" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="H46" s="11" t="s">
         <v>17</v>
       </c>
@@ -4782,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4896,9 +4929,15 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B09ABD-5B2A-44F2-97EF-E93848A2124A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B35779-359B-4508-8A08-6DAE2F49BDEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="E33" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4815,7 +4815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55653B5-DF7E-400B-A52F-A2652F97F925}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B35779-359B-4508-8A08-6DAE2F49BDEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7C160-C652-48A7-B31D-267B4812C549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="365">
   <si>
     <t>Description</t>
   </si>
@@ -1092,6 +1092,45 @@
   </si>
   <si>
     <t>3 twixes, 3 kitkats, 5 coins</t>
+  </si>
+  <si>
+    <t>various places</t>
+  </si>
+  <si>
+    <t>invisible clues</t>
+  </si>
+  <si>
+    <t>4832 4831 9503 3268 8989 7456 9090 9500</t>
+  </si>
+  <si>
+    <t>4785 8743 8543 2354 0694 4967 2505 2405</t>
+  </si>
+  <si>
+    <t>SCB ref</t>
+  </si>
+  <si>
+    <t>scb refs</t>
+  </si>
+  <si>
+    <t>2392 2797 2173 3886 8458 8538 9805 3527</t>
+  </si>
+  <si>
+    <t>Well done for breaking the code. You will find a high level clue at map reference XXX. Once you find it, leave it there for other teams to find. Thanks :)</t>
+  </si>
+  <si>
+    <t>map clues</t>
+  </si>
+  <si>
+    <t>4398 - hide at O25 under door mat</t>
+  </si>
+  <si>
+    <t>3484 - hide at J10 under kitchen table</t>
+  </si>
+  <si>
+    <t>8653 - hide at A08 outside kitchen winow</t>
+  </si>
+  <si>
+    <t>3277 - hide at B14 corner of kitchen</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1425,6 +1464,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,12 +1483,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1757,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,31 +1819,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1814,7 +1856,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2763,13 +2805,13 @@
       <c r="D45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -2789,13 +2831,13 @@
       <c r="D46" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="39" t="s">
         <v>53</v>
       </c>
       <c r="H46" s="11" t="s">
@@ -3713,6 +3755,184 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3751,27 +3971,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -3784,7 +4004,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7C160-C652-48A7-B31D-267B4812C549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BCD3C0-72E9-46A0-9D62-2B742EB5C5AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="369">
   <si>
     <t>Description</t>
   </si>
@@ -1131,6 +1131,18 @@
   </si>
   <si>
     <t>3277 - hide at B14 corner of kitchen</t>
+  </si>
+  <si>
+    <t>0593 - hide at J17 between heater tanks</t>
+  </si>
+  <si>
+    <t>9012 - hide at I22 toilet side of tall thing in boys loo</t>
+  </si>
+  <si>
+    <t>9411 - hide at B29 sofa seat</t>
+  </si>
+  <si>
+    <t>0428 - hide at H33 sofa seat</t>
   </si>
 </sst>
 </file>
@@ -1802,14 +1814,14 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="180.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3883,7 +3895,9 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="C102" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="D102" s="9" t="s">
         <v>120</v>
       </c>
@@ -3897,7 +3911,9 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
+      <c r="C103" s="9" t="s">
+        <v>366</v>
+      </c>
       <c r="D103" s="9" t="s">
         <v>120</v>
       </c>
@@ -3911,7 +3927,9 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+      <c r="C104" s="9" t="s">
+        <v>367</v>
+      </c>
       <c r="D104" s="9" t="s">
         <v>120</v>
       </c>
@@ -3925,7 +3943,9 @@
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
+      <c r="C105" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="D105" s="5" t="s">
         <v>120</v>
       </c>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BCD3C0-72E9-46A0-9D62-2B742EB5C5AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27DF4A-FFDD-4F11-A1B8-35748247503E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="399">
   <si>
     <t>Description</t>
   </si>
@@ -776,9 +776,6 @@
     <t>box of chocs, 4 coins, sabotage code OR interference code, LVL9-4008</t>
   </si>
   <si>
-    <t>3 small chocs (e.g. 3 celebrations), 2 coins, LVL2-8532</t>
-  </si>
-  <si>
     <t>pack of sweets, 3 coins, LVL9-8480</t>
   </si>
   <si>
@@ -1082,9 +1079,6 @@
     <t>3 milkshakes, 5 coins</t>
   </si>
   <si>
-    <t>3 peperamis, 8 coins, sabotage code OR interference code, LVL9-9255, LVL9-1543, LVL9-9032</t>
-  </si>
-  <si>
     <t>downtime winner</t>
   </si>
   <si>
@@ -1143,13 +1137,109 @@
   </si>
   <si>
     <t>0428 - hide at H33 sofa seat</t>
+  </si>
+  <si>
+    <t>3 small chocs (e.g. 3 celebrations), 2 coins, LVL2-8532, Sand Sample</t>
+  </si>
+  <si>
+    <t>2 peperamis, 8 coins, sabotage code OR interference code, LVL9-9255, LVL9-1543, LVL9-9032</t>
+  </si>
+  <si>
+    <t>1210 7333 7844 7228 7907 7004 7114</t>
+  </si>
+  <si>
+    <t>inside rhino</t>
+  </si>
+  <si>
+    <t>rhino</t>
+  </si>
+  <si>
+    <t>binocular</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>You use the binoculars to spy on your suspects. This provides useful information. LVL2</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>toilet roll</t>
+  </si>
+  <si>
+    <t>The criminal uses toilet paper. This really narrows down your list of suspects. LVL1</t>
+  </si>
+  <si>
+    <t>toothpaste</t>
+  </si>
+  <si>
+    <t>The criminal cleans their teeth. A very unusual trait. LVL1</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>With you cunning skills of perception, you finally uncover the candle! How did you find it? LVL1</t>
+  </si>
+  <si>
+    <t>feather</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>bagged sample</t>
+  </si>
+  <si>
+    <t>Its too small to charge thankfully! You notice it has a lid. LVL1</t>
+  </si>
+  <si>
+    <t>clothes peg</t>
+  </si>
+  <si>
+    <t>plaster</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>comb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,6 +1251,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1368,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1467,9 +1571,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1485,6 +1586,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1495,6 +1602,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1811,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,31 +1944,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1868,7 +1981,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2384,16 +2497,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2694,7 +2807,7 @@
         <v>130</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>154</v>
@@ -2720,7 +2833,7 @@
         <v>130</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>150</v>
@@ -2817,13 +2930,13 @@
       <c r="D45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="G45" s="38" t="s">
+      <c r="F45" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" s="37" t="s">
         <v>53</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -2843,13 +2956,13 @@
       <c r="D46" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H46" s="11" t="s">
@@ -3118,10 +3231,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C60" s="4">
         <v>1376</v>
@@ -3138,16 +3251,16 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C61" s="5">
         <v>7499</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
@@ -3158,16 +3271,16 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="C62" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="D62" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>263</v>
       </c>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
@@ -3178,16 +3291,16 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>267</v>
-      </c>
       <c r="C63" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>265</v>
       </c>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
@@ -3258,7 +3371,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>55</v>
@@ -3278,13 +3391,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>115</v>
@@ -3300,7 +3413,7 @@
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>44</v>
@@ -3316,7 +3429,7 @@
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>120</v>
@@ -3332,10 +3445,10 @@
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -3348,7 +3461,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>93</v>
@@ -3364,7 +3477,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -3378,13 +3491,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>115</v>
@@ -3400,7 +3513,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>44</v>
@@ -3416,7 +3529,7 @@
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>120</v>
@@ -3432,10 +3545,10 @@
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -3448,7 +3561,7 @@
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>93</v>
@@ -3464,7 +3577,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -3478,10 +3591,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C80" s="26">
         <v>4884</v>
@@ -3498,10 +3611,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C81" s="4">
         <v>4111</v>
@@ -3518,10 +3631,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C82" s="9">
         <v>5098</v>
@@ -3538,10 +3651,10 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C83" s="5">
         <v>2415</v>
@@ -3558,25 +3671,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>17</v>
@@ -3584,25 +3697,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>319</v>
-      </c>
       <c r="F85" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>17</v>
@@ -3610,59 +3723,59 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="35" t="s">
+      <c r="B87" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="C87" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="D87" s="26" t="s">
         <v>325</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>326</v>
       </c>
       <c r="E87" s="33"/>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
-      <c r="H87" s="36" t="s">
+      <c r="H87" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>115</v>
@@ -3678,7 +3791,7 @@
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>44</v>
@@ -3694,10 +3807,10 @@
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -3710,12 +3823,12 @@
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="10" t="s">
@@ -3761,7 +3874,7 @@
         <v>6320</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
@@ -3772,16 +3885,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
@@ -3790,32 +3903,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D96" s="5" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>359</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
@@ -3824,39 +3931,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D98" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="10" t="s">
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3864,7 +3973,7 @@
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>120</v>
@@ -3880,7 +3989,7 @@
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>120</v>
@@ -3896,7 +4005,7 @@
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>120</v>
@@ -3912,7 +4021,7 @@
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>120</v>
@@ -3928,7 +4037,7 @@
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>120</v>
@@ -3940,19 +4049,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D105" s="5" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="11" t="s">
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C107" s="26">
+        <v>82</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="40" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3972,10 +4117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,27 +4136,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4169,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4741,13 +4886,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>56</v>
@@ -4764,13 +4909,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>56</v>
@@ -4787,13 +4932,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>56</v>
@@ -4810,13 +4955,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>56</v>
@@ -4833,13 +4978,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>56</v>
@@ -4856,13 +5001,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>56</v>
@@ -4879,13 +5024,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>56</v>
@@ -4902,13 +5047,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>56</v>
@@ -4925,13 +5070,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>56</v>
@@ -4948,13 +5093,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>56</v>
@@ -4971,13 +5116,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>56</v>
@@ -4994,13 +5139,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>56</v>
@@ -5017,13 +5162,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>56</v>
@@ -5035,6 +5180,512 @@
         <v>56</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5056,7 +5707,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5091,7 +5742,7 @@
       <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="45" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5099,14 +5750,14 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>327</v>
+      <c r="B3" s="46" t="s">
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>330</v>
+        <v>323</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5119,7 +5770,7 @@
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="45" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5133,22 +5784,22 @@
       <c r="C5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>248</v>
+      <c r="D5" s="45" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="46">
         <v>6320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>347</v>
+        <v>337</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,7 +5812,7 @@
       <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="45" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5169,14 +5820,14 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>349</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,8 +5840,8 @@
       <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>247</v>
+      <c r="D9" s="45" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5203,7 +5854,7 @@
       <c r="C10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="45" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5211,14 +5862,14 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>328</v>
+      <c r="B11" s="46" t="s">
+        <v>327</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D11" s="34" t="s">
         <v>330</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,7 +5882,7 @@
       <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="45" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5240,13 +5891,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>298</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,7 +5910,7 @@
       <c r="C14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="45" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5267,14 +5918,14 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>329</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5287,7 +5938,7 @@
       <c r="C16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="45" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5299,10 +5950,10 @@
         <v>7499</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5312,8 +5963,10 @@
       <c r="B18" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5330,7 +5983,7 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5343,10 +5996,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27DF4A-FFDD-4F11-A1B8-35748247503E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11029C-D200-41CB-A786-9610D7A12AC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -1193,9 +1193,6 @@
     <t>candle</t>
   </si>
   <si>
-    <t>With you cunning skills of perception, you finally uncover the candle! How did you find it? LVL1</t>
-  </si>
-  <si>
     <t>feather</t>
   </si>
   <si>
@@ -1233,6 +1230,9 @@
   </si>
   <si>
     <t>comb</t>
+  </si>
+  <si>
+    <t>With you ornate skills of perception, you finally uncover the candle! How did you find it? LVL1</t>
   </si>
 </sst>
 </file>
@@ -4120,7 +4120,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5375,7 +5375,7 @@
         <v>373</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>56</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>373</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>373</v>
@@ -5438,10 +5438,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>44</v>
@@ -5464,10 +5464,10 @@
         <v>371</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>56</v>
@@ -5484,10 +5484,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>44</v>
@@ -5507,10 +5507,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>115</v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>44</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>115</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>44</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>115</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>44</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>115</v>
@@ -5671,7 +5671,7 @@
         <v>252</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>44</v>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11029C-D200-41CB-A786-9610D7A12AC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F3EF32-0402-4CEB-8973-260A2AED4A4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="5550" yWindow="-12840" windowWidth="21600" windowHeight="11385" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -1145,9 +1145,6 @@
     <t>2 peperamis, 8 coins, sabotage code OR interference code, LVL9-9255, LVL9-1543, LVL9-9032</t>
   </si>
   <si>
-    <t>1210 7333 7844 7228 7907 7004 7114</t>
-  </si>
-  <si>
     <t>inside rhino</t>
   </si>
   <si>
@@ -1233,6 +1230,9 @@
   </si>
   <si>
     <t>With you ornate skills of perception, you finally uncover the candle! How did you find it? LVL1</t>
+  </si>
+  <si>
+    <t>1210 7333 7844 7228 7907 7004 7114 9031 9033</t>
   </si>
 </sst>
 </file>
@@ -1592,6 +1592,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1602,12 +1608,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,31 +1944,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="41" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3907,7 +3907,7 @@
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="15"/>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="26" t="s">
         <v>370</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>371</v>
       </c>
       <c r="C107" s="26">
         <v>82</v>
@@ -4119,7 +4119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
@@ -4136,27 +4136,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5185,13 +5185,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>56</v>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>44</v>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>44</v>
@@ -5254,10 +5254,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>44</v>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>120</v>
@@ -5300,13 +5300,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>56</v>
@@ -5323,13 +5323,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>56</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>44</v>
@@ -5369,13 +5369,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>56</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>44</v>
@@ -5415,10 +5415,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>115</v>
@@ -5438,10 +5438,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>44</v>
@@ -5461,13 +5461,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>56</v>
@@ -5484,10 +5484,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>44</v>
@@ -5507,10 +5507,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>115</v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>44</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>115</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>44</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>115</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>44</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>115</v>
@@ -5671,7 +5671,7 @@
         <v>252</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>44</v>
@@ -5742,7 +5742,7 @@
       <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5750,13 +5750,13 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="42" t="s">
         <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="41" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5770,7 +5770,7 @@
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="41" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="C5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="41" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5792,13 +5792,13 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="42">
         <v>6320</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="41" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
       <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="41" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5820,13 +5820,13 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="42" t="s">
         <v>347</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="41" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5840,7 +5840,7 @@
       <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="41" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5854,7 +5854,7 @@
       <c r="C10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="41" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5862,13 +5862,13 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="42" t="s">
         <v>327</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="41" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
       <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="41" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       <c r="C13" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="41" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       <c r="C14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="41" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5918,13 +5918,13 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="42" t="s">
         <v>328</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="41" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="C16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="41" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5952,7 +5952,7 @@
       <c r="C17" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="41" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       <c r="C18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="41" t="s">
         <v>243</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F3EF32-0402-4CEB-8973-260A2AED4A4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DFE3E4-6BF2-4A57-915F-98F9AC0083A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="-12840" windowWidth="21600" windowHeight="11385" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
+    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="399">
   <si>
     <t>Description</t>
   </si>
@@ -1927,7 +1927,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4117,10 +4117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEF31C-DDF8-4C86-A831-B8FA617B8EB2}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,29 +5663,6 @@
         <v>56</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\csi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DFE3E4-6BF2-4A57-915F-98F9AC0083A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42080643-9C60-41B2-AB8D-97163B97A517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E5079C91-0CC5-438D-B1D4-351AC930AD99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="400">
   <si>
     <t>Description</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t>1210 7333 7844 7228 7907 7004 7114 9031 9033</t>
+  </si>
+  <si>
+    <t>0082</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1608,6 +1611,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1926,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FBA8AC-BE5F-4374-9E6B-466E3E335B00}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,8 +4094,8 @@
       <c r="B107" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="C107" s="26">
-        <v>82</v>
+      <c r="C107" s="47" t="s">
+        <v>399</v>
       </c>
       <c r="D107" s="26" t="s">
         <v>44</v>
